--- a/module/mDrims-Reader/documents/origin/mdrims/학문기초/학문기초.xlsx
+++ b/module/mDrims-Reader/documents/origin/mdrims/학문기초/학문기초.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/97mjh1012_dongguk_edu/Documents/CSE_Study/개인 프로젝트/mdrims-reader/mdrims-reader/documents/mdrims/academic_basics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - dongguk.edu\CSE_Study\개인 프로젝트\TimeTable-Generator\project\module\mDrims-Reader\mdrims-reader\documents\origin\mdrims\학문기초\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_FD1536474A06024FD9156304C4712D6FFBAAD40F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E49214F-6D5A-4BEB-A767-E759DD45F4F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7427AFD1-C1CE-4369-A447-428CC3B713A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="423">
   <si>
     <t>교과과정</t>
   </si>
@@ -49,10 +49,10 @@
     <t>미적분학및연습1</t>
   </si>
   <si>
-    <t>심호진</t>
-  </si>
-  <si>
-    <t>월4.0-4.5/12:00-13:00,수4.0-5.5/12:00-14:00</t>
+    <t>송윤애</t>
+  </si>
+  <si>
+    <t>월4.0-5.0/12:00-13:30,수3.0-4.0/11:00-12:30</t>
   </si>
   <si>
     <t>3</t>
@@ -61,10 +61,124 @@
     <t>PRI4001-02</t>
   </si>
   <si>
+    <t>임영빈</t>
+  </si>
+  <si>
+    <t>PRI4001-03</t>
+  </si>
+  <si>
+    <t>엄건애</t>
+  </si>
+  <si>
+    <t>PRI4001-04</t>
+  </si>
+  <si>
+    <t>월8.5-9.5/16:30-18:00,수6.0-7.0/14:00-15:30</t>
+  </si>
+  <si>
+    <t>PRI4001-05</t>
+  </si>
+  <si>
     <t>박장희</t>
   </si>
   <si>
-    <t>월4.0-5.0/12:00-13:30,수3.0-4.0/11:00-12:30</t>
+    <t>화4.0-5.0/12:00-13:30,목4.0-5.0/12:00-13:30</t>
+  </si>
+  <si>
+    <t>PRI4001-06</t>
+  </si>
+  <si>
+    <t>최광호</t>
+  </si>
+  <si>
+    <t>PRI4001-07</t>
+  </si>
+  <si>
+    <t>조영덕</t>
+  </si>
+  <si>
+    <t>PRI4001-08</t>
+  </si>
+  <si>
+    <t>박호</t>
+  </si>
+  <si>
+    <t>화6.0-7.0/14:00-15:30,금6.0-7.0/14:00-15:30</t>
+  </si>
+  <si>
+    <t>PRI4001-09</t>
+  </si>
+  <si>
+    <t>화8.0-9.0/16:00-17:30,목8.5-9.5/16:30-18:00</t>
+  </si>
+  <si>
+    <t>PRI4001-10</t>
+  </si>
+  <si>
+    <t>수4.5-5.5/12:30-14:00,금4.0-5.0/12:00-13:30</t>
+  </si>
+  <si>
+    <t>PRI4001-11</t>
+  </si>
+  <si>
+    <t>PRI4001-12</t>
+  </si>
+  <si>
+    <t>PRI4001-13</t>
+  </si>
+  <si>
+    <t>PRI4001-14</t>
+  </si>
+  <si>
+    <t>박정준</t>
+  </si>
+  <si>
+    <t>목10.0-12.5/18:00-20:30</t>
+  </si>
+  <si>
+    <t>PRI4001-15</t>
+  </si>
+  <si>
+    <t>월10.0-12.5/18:00-20:30</t>
+  </si>
+  <si>
+    <t>PRI4001-16</t>
+  </si>
+  <si>
+    <t>화10.0-12.5/18:00-20:30</t>
+  </si>
+  <si>
+    <t>PRI4001-17</t>
+  </si>
+  <si>
+    <t>화8.0-10.5/16:00-18:50</t>
+  </si>
+  <si>
+    <t>PRI4001-18</t>
+  </si>
+  <si>
+    <t>수1.0-3.5/09:00-12:00</t>
+  </si>
+  <si>
+    <t>PRI4001-19</t>
+  </si>
+  <si>
+    <t>목8.0-10.5/16:00-18:50</t>
+  </si>
+  <si>
+    <t>PRI4001-20</t>
+  </si>
+  <si>
+    <t>수10.0-12.5/18:00-20:30</t>
+  </si>
+  <si>
+    <t>PRI4001-21</t>
+  </si>
+  <si>
+    <t>PRI4001-22</t>
+  </si>
+  <si>
+    <t>PRI4001-23</t>
   </si>
   <si>
     <t>PRI4002-01</t>
@@ -73,22 +187,325 @@
     <t>일반물리학및실험1</t>
   </si>
   <si>
+    <t>정권범</t>
+  </si>
+  <si>
+    <t>월1.0-2.5/09:00-11:00,월4.0-5.0/12:00-13:30,수3.0-4.0/11:00-12:30</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>PRI4002-02</t>
+  </si>
+  <si>
+    <t>양우철</t>
+  </si>
+  <si>
+    <t>월4.0-5.0/12:00-13:30,수1.0-2.5/09:00-11:00,수3.0-4.0/11:00-12:30</t>
+  </si>
+  <si>
+    <t>PRI4002-03</t>
+  </si>
+  <si>
+    <t>류영선</t>
+  </si>
+  <si>
+    <t>수10.0-12.5/18:00-20:30,수13.0-14.5/20:40-22:20</t>
+  </si>
+  <si>
+    <t>PRI4002-04</t>
+  </si>
+  <si>
+    <t>손정인</t>
+  </si>
+  <si>
+    <t>월8.5-9.5/16:30-18:00,수6.0-7.0/14:00-15:30,목5.0-6.5/13:00-15:00</t>
+  </si>
+  <si>
+    <t>PRI4002-05</t>
+  </si>
+  <si>
+    <t>김선배</t>
+  </si>
+  <si>
+    <t>화4.0-5.0/12:00-13:30,화6.0-7.5/14:00-16:00,목4.0-5.0/12:00-13:30</t>
+  </si>
+  <si>
+    <t>PRI4002-06</t>
+  </si>
+  <si>
+    <t>김순구</t>
+  </si>
+  <si>
+    <t>화4.0-5.5/12:00-14:00,화6.0-7.0/14:00-15:30,목4.0-5.0/12:00-13:30</t>
+  </si>
+  <si>
+    <t>PRI4002-07</t>
+  </si>
+  <si>
     <t>이원철</t>
   </si>
   <si>
-    <t>월3.0-4.5/11:00-13:00,월5.5-6.5/13:30-15:00,수4.5-5.5/12:30-14:00</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>PRI4002-02</t>
+    <t>화6.0-7.0/14:00-15:30,목8.0-9.5/16:00-18:00,금6.0-7.0/14:00-15:30</t>
+  </si>
+  <si>
+    <t>PRI4002-08</t>
+  </si>
+  <si>
+    <t>화8.0-9.0/16:00-17:30,목1.0-2.5/09:00-11:00,금8.5-9.5/16:30-18:00</t>
+  </si>
+  <si>
+    <t>PRI4002-09</t>
+  </si>
+  <si>
+    <t>이동화</t>
+  </si>
+  <si>
+    <t>화8.0-9.0/16:00-17:30,목8.5-9.5/16:30-18:00,금1.0-2.5/09:00-11:00</t>
+  </si>
+  <si>
+    <t>PRI4002-10</t>
   </si>
   <si>
     <t>오형택</t>
   </si>
   <si>
-    <t>월7.5-10.0/15:30-18:25,월10.5-12.0/18:25-20:05</t>
+    <t>수4.5-5.5/12:30-14:00,수8.0-9.5/16:00-18:00,금4.0-5.0/12:00-13:30</t>
+  </si>
+  <si>
+    <t>PRI4002-11</t>
+  </si>
+  <si>
+    <t>월10.0-12.5/18:00-20:30,월13.0-14.5/20:40-22:20</t>
+  </si>
+  <si>
+    <t>PRI4002-12</t>
+  </si>
+  <si>
+    <t>화10.0-12.5/18:00-20:30,화13.0-14.5/20:40-22:20</t>
+  </si>
+  <si>
+    <t>PRI4003-01</t>
+  </si>
+  <si>
+    <t>일반화학및실험1</t>
+  </si>
+  <si>
+    <t>윤성욱</t>
+  </si>
+  <si>
+    <t>월2.0-3.0/10:00-11:30,수5.0-6.0/13:00-14:30,수6.5-8.0/14:30-16:30</t>
+  </si>
+  <si>
+    <t>PRI4003-02</t>
+  </si>
+  <si>
+    <t>김갑수</t>
+  </si>
+  <si>
+    <t>화4.0-5.0/12:00-13:30,목2.0-3.5/10:00-12:00,목4.0-5.0/12:00-13:30</t>
+  </si>
+  <si>
+    <t>PRI4003-03</t>
+  </si>
+  <si>
+    <t>유미경</t>
+  </si>
+  <si>
+    <t>수4.5-5.5/12:30-14:00,금2.0-3.5/10:00-12:00,금4.0-5.0/12:00-13:30</t>
+  </si>
+  <si>
+    <t>PRI4003-04</t>
+  </si>
+  <si>
+    <t>조현진</t>
+  </si>
+  <si>
+    <t>수8.0-9.0/16:00-17:30,금4.0-5.5/12:00-14:00,금8.0-9.0/16:00-17:30</t>
+  </si>
+  <si>
+    <t>PRI4003-05</t>
+  </si>
+  <si>
+    <t>화5.5-6.5/13:30-15:00,목5.5-6.5/13:30-15:00,목7.0-8.5/15:00-17:00</t>
+  </si>
+  <si>
+    <t>PRI4003-06</t>
+  </si>
+  <si>
+    <t>화8.0-9.5/16:00-18:00,화10.0-12.5/18:00-20:30</t>
+  </si>
+  <si>
+    <t>PRI4003-07</t>
+  </si>
+  <si>
+    <t>박봉서</t>
+  </si>
+  <si>
+    <t>목7.0-9.5/15:00-18:00,목10.0-11.5/18:00-19:40</t>
+  </si>
+  <si>
+    <t>PRI4003-08</t>
+  </si>
+  <si>
+    <t>이길선</t>
+  </si>
+  <si>
+    <t>목7.0-9.5/15:00-18:00,금2.0-3.5/10:00-12:00</t>
+  </si>
+  <si>
+    <t>PRI4003-09</t>
+  </si>
+  <si>
+    <t>목7.0-9.5/15:00-18:00,금7.0-8.5/15:00-17:00</t>
+  </si>
+  <si>
+    <t>PRI4003-10</t>
+  </si>
+  <si>
+    <t>수6.0-8.5/14:00-17:00,금5.0-6.5/13:00-15:00</t>
+  </si>
+  <si>
+    <t>PRI4004-01</t>
+  </si>
+  <si>
+    <t>일반생물학및실험1</t>
+  </si>
+  <si>
+    <t>정상민</t>
+  </si>
+  <si>
+    <t>화6.0-7.5/14:00-16:00,목8.5-10.0/16:30-18:25</t>
+  </si>
+  <si>
+    <t>PRI4004-02</t>
+  </si>
+  <si>
+    <t>조선희</t>
+  </si>
+  <si>
+    <t>화8.0-9.5/16:00-18:00,금6.0-7.5/14:00-16:00</t>
+  </si>
+  <si>
+    <t>PRI4004-03</t>
+  </si>
+  <si>
+    <t>이보영</t>
+  </si>
+  <si>
+    <t>화1.0-2.5/09:00-11:00,목6.5-8.0/14:30-16:30</t>
+  </si>
+  <si>
+    <t>PRI4004-04</t>
+  </si>
+  <si>
+    <t>월10.0-11.5/18:00-19:40,월12.0-13.5/19:40-21:30</t>
+  </si>
+  <si>
+    <t>PRI4004-05</t>
+  </si>
+  <si>
+    <t>김병혁</t>
+  </si>
+  <si>
+    <t>화6.0-7.5/14:00-16:00,화8.0-9.5/16:00-18:00</t>
+  </si>
+  <si>
+    <t>PRI4004-06</t>
+  </si>
+  <si>
+    <t>이민호</t>
+  </si>
+  <si>
+    <t>월6.0-7.5/14:00-16:00,월8.0-9.5/16:00-18:00</t>
+  </si>
+  <si>
+    <t>PRI4004-07</t>
+  </si>
+  <si>
+    <t>김경희</t>
+  </si>
+  <si>
+    <t>월2.0-3.5/10:00-12:00,월5.0-6.5/13:00-15:00</t>
+  </si>
+  <si>
+    <t>PRI4005-01</t>
+  </si>
+  <si>
+    <t>일반통계학및실습1</t>
+  </si>
+  <si>
+    <t>정선</t>
+  </si>
+  <si>
+    <t>화6.0-7.5/14:00-16:00,수6.0-7.5/14:00-16:00</t>
+  </si>
+  <si>
+    <t>PRI4010-01</t>
+  </si>
+  <si>
+    <t>대학생물학및실험1</t>
+  </si>
+  <si>
+    <t>이병무</t>
+  </si>
+  <si>
+    <t>월5.0-6.5/13:00-15:00,화2.5-3.5/10:30-12:00,목2.5-3.5/10:30-12:00</t>
+  </si>
+  <si>
+    <t>PRI4010-02</t>
+  </si>
+  <si>
+    <t>양봉숙</t>
+  </si>
+  <si>
+    <t>화1.0-2.0/09:00-10:30,수6.0-7.5/14:00-16:00,목1.0-2.0/09:00-10:30</t>
+  </si>
+  <si>
+    <t>PRI4010-03</t>
+  </si>
+  <si>
+    <t>화2.5-3.5/10:30-12:00,수8.0-9.5/16:00-18:00,목2.5-3.5/10:30-12:00</t>
+  </si>
+  <si>
+    <t>PRI4010-04</t>
+  </si>
+  <si>
+    <t>서태근</t>
+  </si>
+  <si>
+    <t>화1.0-2.0/09:00-10:30,목1.0-2.0/09:00-10:30,목8.0-9.5/16:00-18:00</t>
+  </si>
+  <si>
+    <t>PRI4010-05</t>
+  </si>
+  <si>
+    <t>양승훈</t>
+  </si>
+  <si>
+    <t>화4.0-5.0/12:00-13:30,목4.0-5.0/12:00-13:30,목6.0-7.5/14:00-16:00</t>
+  </si>
+  <si>
+    <t>PRI4011-01</t>
+  </si>
+  <si>
+    <t>대학통계학및실습1</t>
+  </si>
+  <si>
+    <t>주용성</t>
+  </si>
+  <si>
+    <t>월4.0-5.0/12:00-13:30,수3.0-4.0/11:00-12:30,금4.0-5.5/12:00-14:00</t>
+  </si>
+  <si>
+    <t>PRI4011-02</t>
+  </si>
+  <si>
+    <t>이선우</t>
+  </si>
+  <si>
+    <t>월5.5-6.5/13:30-15:00,수4.5-5.5/12:30-14:00,금6.0-7.5/14:00-16:00</t>
   </si>
   <si>
     <t>PRI4012-01</t>
@@ -97,970 +514,751 @@
     <t>미적분학및연습2</t>
   </si>
   <si>
-    <t>임영빈</t>
-  </si>
-  <si>
     <t>PRI4012-02</t>
   </si>
   <si>
-    <t>오승익</t>
-  </si>
-  <si>
-    <t>PRI4012-03</t>
-  </si>
-  <si>
-    <t>조영덕</t>
-  </si>
-  <si>
-    <t>PRI4012-04</t>
-  </si>
-  <si>
-    <t>월8.5-9.5/16:30-18:00,수6.0-7.0/14:00-15:30</t>
-  </si>
-  <si>
-    <t>PRI4012-05</t>
-  </si>
-  <si>
-    <t>PRI4012-06</t>
-  </si>
-  <si>
-    <t>PRI4012-07</t>
-  </si>
-  <si>
-    <t>안재욱</t>
-  </si>
-  <si>
-    <t>화4.0-5.0/12:00-13:30,목4.0-5.0/12:00-13:30</t>
-  </si>
-  <si>
-    <t>PRI4012-08</t>
-  </si>
-  <si>
-    <t>김선영</t>
-  </si>
-  <si>
-    <t>PRI4012-09</t>
-  </si>
-  <si>
-    <t>연미정</t>
-  </si>
-  <si>
-    <t>PRI4012-10</t>
-  </si>
-  <si>
-    <t>오형석</t>
-  </si>
-  <si>
-    <t>수10.0-12.5/18:00-20:30</t>
-  </si>
-  <si>
-    <t>PRI4012-11</t>
+    <t>수8.0-10.5/16:00-18:50</t>
+  </si>
+  <si>
+    <t>PRI4023-01</t>
+  </si>
+  <si>
+    <t>확률및통계학</t>
+  </si>
+  <si>
+    <t>김희경</t>
+  </si>
+  <si>
+    <t>PRI4023-02</t>
+  </si>
+  <si>
+    <t>PRI4023-03</t>
+  </si>
+  <si>
+    <t>곽화륜</t>
+  </si>
+  <si>
+    <t>PRI4023-04</t>
+  </si>
+  <si>
+    <t>PRI4023-05</t>
+  </si>
+  <si>
+    <t>최은희</t>
+  </si>
+  <si>
+    <t>PRI4024-01</t>
+  </si>
+  <si>
+    <t>공학선형대수학</t>
+  </si>
+  <si>
+    <t>PRI4024-02</t>
+  </si>
+  <si>
+    <t>PRI4024-03</t>
+  </si>
+  <si>
+    <t>PRI4024-04</t>
+  </si>
+  <si>
+    <t>수8.0-9.0/16:00-17:30,금8.0-9.0/16:00-17:30</t>
+  </si>
+  <si>
+    <t>PRI4024-05</t>
+  </si>
+  <si>
+    <t>PRI4024-06</t>
+  </si>
+  <si>
+    <t>금10.0-12.5/18:00-20:30</t>
+  </si>
+  <si>
+    <t>PRI4025-01</t>
+  </si>
+  <si>
+    <t>공학수학1</t>
+  </si>
+  <si>
+    <t>PRI4025-02</t>
+  </si>
+  <si>
+    <t>권기운</t>
+  </si>
+  <si>
+    <t>PRI4025-03</t>
+  </si>
+  <si>
+    <t>PRI4025-04</t>
+  </si>
+  <si>
+    <t>PRI4025-05</t>
+  </si>
+  <si>
+    <t>PRI4027-01</t>
+  </si>
+  <si>
+    <t>이산수학</t>
+  </si>
+  <si>
+    <t>주태우</t>
+  </si>
+  <si>
+    <t>PRI4027-02</t>
+  </si>
+  <si>
+    <t>PRI4027-03</t>
+  </si>
+  <si>
+    <t>PRI4028-01</t>
+  </si>
+  <si>
+    <t>생물학개론</t>
+  </si>
+  <si>
+    <t>PRI4028-02</t>
+  </si>
+  <si>
+    <t>한미희</t>
+  </si>
+  <si>
+    <t>PRI4028-03</t>
+  </si>
+  <si>
+    <t>PRI4028-04</t>
+  </si>
+  <si>
+    <t>PRI4028-05</t>
+  </si>
+  <si>
+    <t>PRI4033-01</t>
+  </si>
+  <si>
+    <t>지구환경과학</t>
+  </si>
+  <si>
+    <t>조봉연</t>
+  </si>
+  <si>
+    <t>PRI4033-02</t>
+  </si>
+  <si>
+    <t>이동훈</t>
+  </si>
+  <si>
+    <t>PRI4035-01</t>
+  </si>
+  <si>
+    <t>프로그래밍기초와실습</t>
+  </si>
+  <si>
+    <t>송양의</t>
+  </si>
+  <si>
+    <t>월4.0-5.5/12:00-14:00,수3.0-4.5/11:00-13:00</t>
+  </si>
+  <si>
+    <t>PRI4035-02</t>
+  </si>
+  <si>
+    <t>홍성옥</t>
+  </si>
+  <si>
+    <t>월8.5-10.0/16:30-18:25,수6.0-7.5/14:00-16:00</t>
+  </si>
+  <si>
+    <t>PRI4035-03</t>
+  </si>
+  <si>
+    <t>김신우</t>
+  </si>
+  <si>
+    <t>화4.0-5.5/12:00-14:00,목4.0-5.5/12:00-14:00</t>
+  </si>
+  <si>
+    <t>PRI4035-04</t>
+  </si>
+  <si>
+    <t>이호정</t>
+  </si>
+  <si>
+    <t>화6.0-7.5/14:00-16:00,금6.0-7.5/14:00-16:00</t>
+  </si>
+  <si>
+    <t>PRI4035-05</t>
+  </si>
+  <si>
+    <t>정진우</t>
+  </si>
+  <si>
+    <t>화8.0-9.5/16:00-18:00,목8.5-10.0/16:30-18:25</t>
+  </si>
+  <si>
+    <t>PRI4035-06</t>
+  </si>
+  <si>
+    <t>이명숙</t>
+  </si>
+  <si>
+    <t>수4.5-6.0/12:30-14:30,금4.0-5.5/12:00-14:00</t>
+  </si>
+  <si>
+    <t>PRI4035-07</t>
+  </si>
+  <si>
+    <t>수8.0-9.5/16:00-18:00,금8.0-9.5/16:00-18:00</t>
+  </si>
+  <si>
+    <t>PRI4035-08</t>
+  </si>
+  <si>
+    <t>PRI4035-09</t>
+  </si>
+  <si>
+    <t>월10.5-14.0/18:25-21:55</t>
+  </si>
+  <si>
+    <t>PRI4035-10</t>
+  </si>
+  <si>
+    <t>수10.0-13.5/18:00-21:30</t>
+  </si>
+  <si>
+    <t>PRI4039-01</t>
+  </si>
+  <si>
+    <t>인터넷프로그래밍</t>
+  </si>
+  <si>
+    <t>엄진영</t>
+  </si>
+  <si>
+    <t>PRI4039-02</t>
+  </si>
+  <si>
+    <t>장은실</t>
+  </si>
+  <si>
+    <t>PRI4039-03</t>
+  </si>
+  <si>
+    <t>화10.5-14.0/18:25-21:55</t>
+  </si>
+  <si>
+    <t>PRI4041-01</t>
+  </si>
+  <si>
+    <t>공학경제</t>
+  </si>
+  <si>
+    <t>김소정</t>
+  </si>
+  <si>
+    <t>PRI4041-02</t>
+  </si>
+  <si>
+    <t>서용윤</t>
+  </si>
+  <si>
+    <t>PRI4041-03</t>
+  </si>
+  <si>
+    <t>전성범</t>
+  </si>
+  <si>
+    <t>PRI4041-04</t>
+  </si>
+  <si>
+    <t>김상직</t>
+  </si>
+  <si>
+    <t>PRI4041-05</t>
+  </si>
+  <si>
+    <t>홍성조</t>
+  </si>
+  <si>
+    <t>PRI4046-01</t>
+  </si>
+  <si>
+    <t>기초수학(인문)</t>
+  </si>
+  <si>
+    <t>월5.5-6.0/13:30-14:30</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>PRI4051-01</t>
+  </si>
+  <si>
+    <t>산업수학</t>
+  </si>
+  <si>
+    <t>이기송</t>
+  </si>
+  <si>
+    <t>화5.0-6.0/13:00-14:30,목5.0-6.0/13:00-14:30</t>
+  </si>
+  <si>
+    <t>PRI4051-02</t>
+  </si>
+  <si>
+    <t>화7.0-8.0/15:00-16:30,목7.0-8.0/15:00-16:30</t>
+  </si>
+  <si>
+    <t>PRI4051-03</t>
+  </si>
+  <si>
+    <t>이진우</t>
+  </si>
+  <si>
+    <t>PRI4051-04</t>
+  </si>
+  <si>
+    <t>박관순</t>
+  </si>
+  <si>
+    <t>화6.5-7.5/14:30-16:00,목6.5-7.5/14:30-16:00</t>
+  </si>
+  <si>
+    <t>PRI5001-01</t>
+  </si>
+  <si>
+    <t>영어작문</t>
+  </si>
+  <si>
+    <t>김지희</t>
+  </si>
+  <si>
+    <t>PRI5002-01</t>
+  </si>
+  <si>
+    <t>TOEIC영어</t>
+  </si>
+  <si>
+    <t>박제이</t>
+  </si>
+  <si>
+    <t>PRI5002-02</t>
+  </si>
+  <si>
+    <t>박소영</t>
+  </si>
+  <si>
+    <t>PRI5002-03</t>
+  </si>
+  <si>
+    <t>PRI5002-04</t>
+  </si>
+  <si>
+    <t>금11.0-13.5/18:50-21:30</t>
+  </si>
+  <si>
+    <t>PRI5002-05</t>
+  </si>
+  <si>
+    <t>양창헌</t>
+  </si>
+  <si>
+    <t>수6.0-8.5/14:00-17:00</t>
+  </si>
+  <si>
+    <t>PRI5016-01</t>
+  </si>
+  <si>
+    <t>Academic Reading and Discussion</t>
+  </si>
+  <si>
+    <t>데미안</t>
+  </si>
+  <si>
+    <t>PRI5016-02</t>
+  </si>
+  <si>
+    <t>PRI5017-01</t>
+  </si>
+  <si>
+    <t>Academic Listening and Discussion</t>
+  </si>
+  <si>
+    <t>베리웰시</t>
+  </si>
+  <si>
+    <t>PRI5017-02</t>
+  </si>
+  <si>
+    <t>수7.0-8.0/15:00-16:30,금3.0-4.0/11:00-12:30</t>
+  </si>
+  <si>
+    <t>PRI5051-01</t>
+  </si>
+  <si>
+    <t>시사영어</t>
+  </si>
+  <si>
+    <t>방찬혁</t>
+  </si>
+  <si>
+    <t>PRI5073-01</t>
+  </si>
+  <si>
+    <t>CurrentIssuesandDiscussion</t>
+  </si>
+  <si>
+    <t>쟌아다마</t>
+  </si>
+  <si>
+    <t>PRI5073-02</t>
+  </si>
+  <si>
+    <t>월8.0-9.0/16:00-17:30,목8.0-9.0/16:00-17:30</t>
+  </si>
+  <si>
+    <t>PRI5074-01</t>
+  </si>
+  <si>
+    <t>EnglishthroughFilms</t>
+  </si>
+  <si>
+    <t>벤윌리스</t>
+  </si>
+  <si>
+    <t>PRI5074-02</t>
+  </si>
+  <si>
+    <t>수3.0-4.0/11:00-12:30,금3.0-4.0/11:00-12:30</t>
+  </si>
+  <si>
+    <t>PRI5075-01</t>
+  </si>
+  <si>
+    <t>AcademicWriting</t>
+  </si>
+  <si>
+    <t>데이린프롤리</t>
+  </si>
+  <si>
+    <t>월1.0-2.0/09:00-10:30,목2.5-3.5/10:30-12:00</t>
+  </si>
+  <si>
+    <t>PRI5075-02</t>
+  </si>
+  <si>
+    <t>월2.5-3.5/10:30-12:00,목1.0-2.0/09:00-10:30</t>
+  </si>
+  <si>
+    <t>PRI5075-03</t>
+  </si>
+  <si>
+    <t>월5.5-6.5/13:30-15:00,목5.5-6.5/13:30-15:00</t>
+  </si>
+  <si>
+    <t>PRI5075-04</t>
+  </si>
+  <si>
+    <t>월7.0-8.0/15:00-16:30,목7.0-8.0/15:00-16:30</t>
+  </si>
+  <si>
+    <t>PRI5076-01</t>
+  </si>
+  <si>
+    <t>BusinessWriting</t>
+  </si>
+  <si>
+    <t>제프벨리</t>
+  </si>
+  <si>
+    <t>PRI5076-02</t>
+  </si>
+  <si>
+    <t>에이미우</t>
+  </si>
+  <si>
+    <t>월6.0-7.0/14:00-15:30,목6.0-7.0/14:00-15:30</t>
+  </si>
+  <si>
+    <t>PRI5076-03</t>
+  </si>
+  <si>
+    <t>PRI5076-04</t>
+  </si>
+  <si>
+    <t>PRI5079-01</t>
+  </si>
+  <si>
+    <t>EnglishConversation3</t>
+  </si>
+  <si>
+    <t>PRI5081-01</t>
+  </si>
+  <si>
+    <t>중국어(초급)</t>
+  </si>
+  <si>
+    <t>박석홍</t>
+  </si>
+  <si>
+    <t>PRI5081-02</t>
+  </si>
+  <si>
+    <t>PRI5081-03</t>
+  </si>
+  <si>
+    <t>김지선</t>
+  </si>
+  <si>
+    <t>월5.5-6.5/13:30-15:00,수5.5-6.5/13:30-15:00</t>
+  </si>
+  <si>
+    <t>PRI5081-04</t>
+  </si>
+  <si>
+    <t>이종미</t>
+  </si>
+  <si>
+    <t>화2.5-3.5/10:30-12:00,목2.5-3.5/10:30-12:00</t>
+  </si>
+  <si>
+    <t>PRI5081-05</t>
+  </si>
+  <si>
+    <t>양선혜</t>
+  </si>
+  <si>
+    <t>PRI5081-06</t>
+  </si>
+  <si>
+    <t>수11.0-13.5/18:50-21:30</t>
+  </si>
+  <si>
+    <t>PRI5081-07</t>
+  </si>
+  <si>
+    <t>조영경</t>
+  </si>
+  <si>
+    <t>화8.0-9.0/16:00-17:30,목8.0-9.0/16:00-17:30</t>
+  </si>
+  <si>
+    <t>PRI5082-01</t>
+  </si>
+  <si>
+    <t>중국어(중급)</t>
+  </si>
+  <si>
+    <t>김화진</t>
+  </si>
+  <si>
+    <t>PRI5083-01</t>
+  </si>
+  <si>
+    <t>일본어(초급)</t>
+  </si>
+  <si>
+    <t>신지연</t>
+  </si>
+  <si>
+    <t>PRI5083-02</t>
+  </si>
+  <si>
+    <t>김연진</t>
+  </si>
+  <si>
+    <t>PRI5083-03</t>
+  </si>
+  <si>
+    <t>오채현</t>
+  </si>
+  <si>
+    <t>PRI5083-04</t>
+  </si>
+  <si>
+    <t>고쿠쇼카즈미</t>
+  </si>
+  <si>
+    <t>PRI5083-05</t>
+  </si>
+  <si>
+    <t>하소정</t>
+  </si>
+  <si>
+    <t>PRI5083-06</t>
+  </si>
+  <si>
+    <t>김경민</t>
+  </si>
+  <si>
+    <t>PRI5083-07</t>
+  </si>
+  <si>
+    <t>하채령</t>
+  </si>
+  <si>
+    <t>PRI5083-08</t>
+  </si>
+  <si>
+    <t>신은화</t>
+  </si>
+  <si>
+    <t>PRI5083-09</t>
+  </si>
+  <si>
+    <t>정성희</t>
+  </si>
+  <si>
+    <t>목11.0-13.5/18:50-21:30</t>
+  </si>
+  <si>
+    <t>PRI5084-01</t>
+  </si>
+  <si>
+    <t>일본어(중급)</t>
+  </si>
+  <si>
+    <t>박정원</t>
+  </si>
+  <si>
+    <t>PRI5085-01</t>
+  </si>
+  <si>
+    <t>독일어(초급)</t>
+  </si>
+  <si>
+    <t>이상욱</t>
+  </si>
+  <si>
+    <t>화1.0-2.0/09:00-10:30,금1.0-2.0/09:00-10:30</t>
+  </si>
+  <si>
+    <t>PRI5085-02</t>
+  </si>
+  <si>
+    <t>화3.0-4.0/11:00-12:30,금3.0-4.0/11:00-12:30</t>
+  </si>
+  <si>
+    <t>PRI5087-01</t>
+  </si>
+  <si>
+    <t>불어(초급)</t>
+  </si>
+  <si>
+    <t>임민지</t>
+  </si>
+  <si>
+    <t>화2.0-3.0/10:00-11:30,금2.0-3.0/10:00-11:30</t>
+  </si>
+  <si>
+    <t>PRI5087-02</t>
+  </si>
+  <si>
+    <t>화3.5-4.5/11:30-13:00,금3.5-4.5/11:30-13:00</t>
+  </si>
+  <si>
+    <t>PRI5089-01</t>
+  </si>
+  <si>
+    <t>러시아어(초급)</t>
+  </si>
+  <si>
+    <t>김연수</t>
+  </si>
+  <si>
+    <t>PRI5089-02</t>
+  </si>
+  <si>
+    <t>화5.5-6.5/13:30-15:00,목5.5-6.5/13:30-15:00</t>
+  </si>
+  <si>
+    <t>PRI5091-01</t>
+  </si>
+  <si>
+    <t>스페인어(초급)</t>
+  </si>
+  <si>
+    <t>정민정</t>
+  </si>
+  <si>
+    <t>월4.5-5.5/12:30-14:00,수4.0-5.0/12:00-13:30</t>
+  </si>
+  <si>
+    <t>PRI5091-02</t>
+  </si>
+  <si>
+    <t>월6.0-7.0/14:00-15:30,수5.5-6.5/13:30-15:00</t>
+  </si>
+  <si>
+    <t>PRI5093-01</t>
+  </si>
+  <si>
+    <t>아랍어(초급)</t>
+  </si>
+  <si>
+    <t>이동은</t>
+  </si>
+  <si>
+    <t>PRI5093-02</t>
+  </si>
+  <si>
+    <t>PRI5095-01</t>
+  </si>
+  <si>
+    <t>교양한문</t>
+  </si>
+  <si>
+    <t>남궁윤</t>
+  </si>
+  <si>
+    <t>PRI5095-02</t>
+  </si>
+  <si>
+    <t>이주영</t>
+  </si>
+  <si>
+    <t>PRI5095-03</t>
+  </si>
+  <si>
+    <t>정난영</t>
+  </si>
+  <si>
+    <t>PRI5095-04</t>
+  </si>
+  <si>
+    <t>민희주</t>
+  </si>
+  <si>
+    <t>PRI5095-05</t>
+  </si>
+  <si>
+    <t>박성호</t>
+  </si>
+  <si>
+    <t>PRI5095-06</t>
+  </si>
+  <si>
+    <t>박상란</t>
+  </si>
+  <si>
+    <t>PRI5095-07</t>
+  </si>
+  <si>
+    <t>하성란</t>
+  </si>
+  <si>
+    <t>PRI5095-08</t>
+  </si>
+  <si>
+    <t>최진경</t>
   </si>
   <si>
     <t>화6.0-7.0/14:00-15:30,목6.0-7.0/14:00-15:30</t>
   </si>
   <si>
-    <t>PRI4012-12</t>
-  </si>
-  <si>
-    <t>PRI4012-13</t>
-  </si>
-  <si>
-    <t>박상웅</t>
-  </si>
-  <si>
-    <t>PRI4012-14</t>
-  </si>
-  <si>
-    <t>엄건애</t>
-  </si>
-  <si>
-    <t>PRI4012-15</t>
-  </si>
-  <si>
-    <t>박정준</t>
-  </si>
-  <si>
-    <t>화8.0-9.0/16:00-17:30,목8.5-9.5/16:30-18:00</t>
-  </si>
-  <si>
-    <t>PRI4012-16</t>
-  </si>
-  <si>
-    <t>송윤애</t>
-  </si>
-  <si>
-    <t>수4.5-5.5/12:30-14:00,금4.0-5.0/12:00-13:30</t>
-  </si>
-  <si>
-    <t>PRI4012-17</t>
-  </si>
-  <si>
-    <t>박호</t>
-  </si>
-  <si>
-    <t>화10.0-12.5/18:00-20:30</t>
-  </si>
-  <si>
-    <t>PRI4013-01</t>
-  </si>
-  <si>
-    <t>일반물리학및실험2</t>
-  </si>
-  <si>
-    <t>정권범</t>
-  </si>
-  <si>
-    <t>월1.0-2.5/09:00-11:00,월4.0-5.0/12:00-13:30,수3.0-4.0/11:00-12:30</t>
-  </si>
-  <si>
-    <t>PRI4013-02</t>
-  </si>
-  <si>
-    <t>손정인</t>
-  </si>
-  <si>
-    <t>월4.0-5.0/12:00-13:30,수3.0-4.0/11:00-12:30,목1.0-2.5/09:00-11:00</t>
-  </si>
-  <si>
-    <t>PRI4013-03</t>
-  </si>
-  <si>
-    <t>곽동욱</t>
-  </si>
-  <si>
-    <t>월10.0-12.5/18:00-20:30,월13.0-14.5/20:40-22:20</t>
-  </si>
-  <si>
-    <t>PRI4013-04</t>
-  </si>
-  <si>
-    <t>유상구</t>
-  </si>
-  <si>
-    <t>화10.0-12.5/18:00-20:30,화13.0-14.5/20:40-22:20</t>
-  </si>
-  <si>
-    <t>PRI4013-05</t>
-  </si>
-  <si>
-    <t>이동화</t>
-  </si>
-  <si>
-    <t>화8.0-9.0/16:00-17:30,목8.5-9.5/16:30-18:00,금1.0-2.5/09:00-11:00</t>
-  </si>
-  <si>
-    <t>PRI4013-06</t>
-  </si>
-  <si>
-    <t>화4.0-5.0/12:00-13:30,수1.0-2.5/09:00-11:00,목4.0-5.0/12:00-13:30</t>
-  </si>
-  <si>
-    <t>PRI4013-07</t>
-  </si>
-  <si>
-    <t>김선배</t>
-  </si>
-  <si>
-    <t>화4.0-5.0/12:00-13:30,수6.0-7.5/14:00-16:00,목4.0-5.0/12:00-13:30</t>
-  </si>
-  <si>
-    <t>PRI4013-08</t>
-  </si>
-  <si>
-    <t>김순구</t>
-  </si>
-  <si>
-    <t>화1.0-2.5/09:00-11:00,화8.0-9.0/16:00-17:30,목8.5-9.5/16:30-18:00</t>
-  </si>
-  <si>
-    <t>PRI4013-09</t>
-  </si>
-  <si>
-    <t>박경원</t>
-  </si>
-  <si>
-    <t>화4.0-5.5/12:00-14:00,화6.0-7.0/14:00-15:30,금6.0-7.0/14:00-15:30</t>
-  </si>
-  <si>
-    <t>PRI4013-10</t>
-  </si>
-  <si>
-    <t>수4.5-5.5/12:30-14:00,수8.0-9.5/16:00-18:00,금4.0-5.0/12:00-13:30</t>
-  </si>
-  <si>
-    <t>PRI4013-11</t>
-  </si>
-  <si>
-    <t>류영선</t>
-  </si>
-  <si>
-    <t>수10.0-12.5/18:00-20:30,수13.0-14.5/20:40-22:20</t>
-  </si>
-  <si>
-    <t>PRI4014-01</t>
-  </si>
-  <si>
-    <t>일반화학및실험2</t>
-  </si>
-  <si>
-    <t>김갑수</t>
-  </si>
-  <si>
-    <t>월1.0-2.0/09:00-10:30,월4.0-5.5/12:00-14:00,화2.5-3.5/10:30-12:00</t>
-  </si>
-  <si>
-    <t>PRI4014-02</t>
-  </si>
-  <si>
-    <t>윤성욱</t>
-  </si>
-  <si>
-    <t>월2.0-3.5/10:00-12:00,월4.0-5.0/12:00-13:30,수3.0-4.0/11:00-12:30</t>
-  </si>
-  <si>
-    <t>PRI4014-03</t>
-  </si>
-  <si>
-    <t>화4.0-5.0/12:00-13:30,목4.0-5.0/12:00-13:30,목6.0-7.5/14:00-16:00</t>
-  </si>
-  <si>
-    <t>PRI4014-04</t>
-  </si>
-  <si>
-    <t>월10.0-12.5/18:00-20:30,화5.5-7.0/13:30-15:30</t>
-  </si>
-  <si>
-    <t>PRI4014-05</t>
-  </si>
-  <si>
-    <t>이길선</t>
-  </si>
-  <si>
-    <t>목8.0-10.5/16:00-18:50,금4.0-5.5/12:00-14:00</t>
-  </si>
-  <si>
-    <t>PRI4015-01</t>
-  </si>
-  <si>
-    <t>일반생물학및실험2</t>
-  </si>
-  <si>
-    <t>이보영</t>
-  </si>
-  <si>
-    <t>화8.0-9.5/16:00-18:00,금6.0-7.5/14:00-16:00</t>
-  </si>
-  <si>
-    <t>PRI4015-02</t>
-  </si>
-  <si>
-    <t>정상민</t>
-  </si>
-  <si>
-    <t>월10.0-11.5/18:00-19:40,월12.0-13.5/19:40-21:30</t>
-  </si>
-  <si>
-    <t>PRI4015-03</t>
-  </si>
-  <si>
-    <t>김병혁</t>
-  </si>
-  <si>
-    <t>월6.0-7.5/14:00-16:00,월8.0-9.5/16:00-18:00</t>
-  </si>
-  <si>
-    <t>PRI4015-04</t>
-  </si>
-  <si>
-    <t>조선희</t>
-  </si>
-  <si>
-    <t>화1.0-2.5/09:00-11:00,목6.5-8.0/14:30-16:30</t>
-  </si>
-  <si>
-    <t>PRI4016-01</t>
-  </si>
-  <si>
-    <t>일반통계학및실습2</t>
-  </si>
-  <si>
-    <t>정선</t>
-  </si>
-  <si>
-    <t>화6.0-7.5/14:00-16:00,수6.0-7.5/14:00-16:00</t>
-  </si>
-  <si>
-    <t>PRI4021-01</t>
-  </si>
-  <si>
-    <t>대학생물학및실험2</t>
-  </si>
-  <si>
-    <t>화1.0-2.0/09:00-10:30,수6.0-7.5/14:00-16:00,목1.0-2.0/09:00-10:30</t>
-  </si>
-  <si>
-    <t>PRI4021-02</t>
-  </si>
-  <si>
-    <t>화2.5-3.5/10:30-12:00,수8.0-9.5/16:00-18:00,목2.5-3.5/10:30-12:00</t>
-  </si>
-  <si>
-    <t>PRI4021-03</t>
-  </si>
-  <si>
-    <t>오충현</t>
-  </si>
-  <si>
-    <t>화2.5-3.5/10:30-12:00,화8.0-9.5/16:00-18:00,목2.5-3.5/10:30-12:00</t>
-  </si>
-  <si>
-    <t>PRI4021-04</t>
-  </si>
-  <si>
-    <t>방석영</t>
-  </si>
-  <si>
-    <t>월2.5-3.5/10:30-12:00,화4.0-5.5/12:00-14:00,수2.5-3.5/10:30-12:00</t>
-  </si>
-  <si>
-    <t>PRI4022-01</t>
-  </si>
-  <si>
-    <t>대학통계학및실습2</t>
-  </si>
-  <si>
-    <t>주용성</t>
-  </si>
-  <si>
-    <t>월4.0-5.0/12:00-13:30,수3.0-4.0/11:00-12:30,금4.0-5.5/12:00-14:00</t>
-  </si>
-  <si>
-    <t>PRI4022-02</t>
-  </si>
-  <si>
-    <t>월5.5-6.5/13:30-15:00,수4.5-5.5/12:30-14:00,금6.0-7.5/14:00-16:00</t>
-  </si>
-  <si>
-    <t>PRI4023-01</t>
-  </si>
-  <si>
-    <t>확률및통계학</t>
-  </si>
-  <si>
-    <t>김희경</t>
-  </si>
-  <si>
-    <t>PRI4023-02</t>
-  </si>
-  <si>
-    <t>PRI4023-03</t>
-  </si>
-  <si>
-    <t>곽화륜</t>
-  </si>
-  <si>
-    <t>PRI4023-04</t>
-  </si>
-  <si>
-    <t>최은희</t>
-  </si>
-  <si>
-    <t>화8.0-10.5/16:00-18:50</t>
-  </si>
-  <si>
-    <t>PRI4023-05</t>
-  </si>
-  <si>
-    <t>PRI4024-01</t>
-  </si>
-  <si>
-    <t>공학선형대수학</t>
-  </si>
-  <si>
-    <t>PRI4024-02</t>
-  </si>
-  <si>
-    <t>PRI4024-03</t>
-  </si>
-  <si>
-    <t>화6.0-7.0/14:00-15:30,금6.0-7.0/14:00-15:30</t>
-  </si>
-  <si>
-    <t>PRI4024-04</t>
-  </si>
-  <si>
-    <t>수8.0-9.0/16:00-17:30,금8.0-9.0/16:00-17:30</t>
-  </si>
-  <si>
-    <t>PRI4025-01</t>
-  </si>
-  <si>
-    <t>공학수학1</t>
-  </si>
-  <si>
-    <t>최광호</t>
-  </si>
-  <si>
-    <t>PRI4025-02</t>
-  </si>
-  <si>
-    <t>PRI4025-03</t>
-  </si>
-  <si>
-    <t>PRI4027-01</t>
-  </si>
-  <si>
-    <t>이산수학</t>
-  </si>
-  <si>
-    <t>정화용</t>
-  </si>
-  <si>
-    <t>PRI4028-01</t>
-  </si>
-  <si>
-    <t>생물학개론</t>
-  </si>
-  <si>
-    <t>PRI4028-02</t>
-  </si>
-  <si>
-    <t>한미희</t>
-  </si>
-  <si>
-    <t>PRI4028-03</t>
-  </si>
-  <si>
-    <t>PRI4028-04</t>
-  </si>
-  <si>
-    <t>이재영</t>
-  </si>
-  <si>
-    <t>PRI4028-05</t>
-  </si>
-  <si>
-    <t>PRI4029-01</t>
-  </si>
-  <si>
-    <t>물리학개론</t>
-  </si>
-  <si>
-    <t>PRI4029-02</t>
-  </si>
-  <si>
-    <t>금5.0-7.5/13:00-16:00</t>
-  </si>
-  <si>
-    <t>PRI4030-01</t>
-  </si>
-  <si>
-    <t>화학개론</t>
-  </si>
-  <si>
-    <t>PRI4030-02</t>
-  </si>
-  <si>
-    <t>유미경</t>
-  </si>
-  <si>
-    <t>화5.5-6.5/13:30-15:00,목5.5-6.5/13:30-15:00</t>
-  </si>
-  <si>
-    <t>PRI4030-03</t>
-  </si>
-  <si>
-    <t>이종혁</t>
-  </si>
-  <si>
-    <t>PRI4030-04</t>
-  </si>
-  <si>
-    <t>조현진</t>
-  </si>
-  <si>
-    <t>목4.0-6.5/12:00-15:00</t>
-  </si>
-  <si>
-    <t>PRI4033-01</t>
-  </si>
-  <si>
-    <t>지구환경과학</t>
-  </si>
-  <si>
-    <t>조봉연</t>
-  </si>
-  <si>
-    <t>PRI4033-02</t>
-  </si>
-  <si>
-    <t>PRI4035-01</t>
-  </si>
-  <si>
-    <t>프로그래밍기초와실습</t>
-  </si>
-  <si>
-    <t>안영아</t>
-  </si>
-  <si>
-    <t>월4.0-5.5/12:00-14:00,수3.0-4.5/11:00-13:00</t>
-  </si>
-  <si>
-    <t>PRI4035-02</t>
-  </si>
-  <si>
-    <t>홍성옥</t>
-  </si>
-  <si>
-    <t>월8.0-9.5/16:00-18:00,수6.0-7.5/14:00-16:00</t>
-  </si>
-  <si>
-    <t>PRI4035-03</t>
-  </si>
-  <si>
-    <t>강태선</t>
-  </si>
-  <si>
-    <t>화6.0-7.5/14:00-16:00,금6.0-7.5/14:00-16:00</t>
-  </si>
-  <si>
-    <t>PRI4035-04</t>
-  </si>
-  <si>
-    <t>김윤선</t>
-  </si>
-  <si>
-    <t>화6.0-7.5/14:00-16:00,금5.5-7.0/13:30-15:30</t>
-  </si>
-  <si>
-    <t>PRI4035-05</t>
-  </si>
-  <si>
-    <t>김시명</t>
-  </si>
-  <si>
-    <t>월7.0-8.5/15:00-17:00,수9.0-10.5/17:00-18:50</t>
-  </si>
-  <si>
-    <t>PRI4035-06</t>
-  </si>
-  <si>
-    <t>김경자</t>
-  </si>
-  <si>
-    <t>수7.0-8.5/15:00-17:00,금5.0-6.5/13:00-15:00</t>
-  </si>
-  <si>
-    <t>PRI4039-01</t>
-  </si>
-  <si>
-    <t>인터넷프로그래밍</t>
-  </si>
-  <si>
-    <t>윤성림</t>
-  </si>
-  <si>
-    <t>PRI4039-02</t>
-  </si>
-  <si>
-    <t>장은실</t>
-  </si>
-  <si>
-    <t>화8.0-9.5/16:00-18:00,목8.5-10.0/16:30-18:25</t>
-  </si>
-  <si>
-    <t>PRI4039-03</t>
-  </si>
-  <si>
-    <t>화10.0-13.5/18:00-21:30</t>
-  </si>
-  <si>
-    <t>PRI4041-01</t>
-  </si>
-  <si>
-    <t>공학경제</t>
-  </si>
-  <si>
-    <t>김소정</t>
-  </si>
-  <si>
-    <t>PRI4041-02</t>
-  </si>
-  <si>
-    <t>서용윤</t>
-  </si>
-  <si>
-    <t>PRI4041-03</t>
-  </si>
-  <si>
-    <t>홍성조</t>
-  </si>
-  <si>
-    <t>PRI4041-04</t>
-  </si>
-  <si>
-    <t>김상직</t>
-  </si>
-  <si>
-    <t>PRI4046-01</t>
-  </si>
-  <si>
-    <t>기초수학(인문)</t>
-  </si>
-  <si>
-    <t>월5.0-5.5/13:00-14:00</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>PRI5002-01</t>
-  </si>
-  <si>
-    <t>TOEIC영어</t>
-  </si>
-  <si>
-    <t>양창헌</t>
-  </si>
-  <si>
-    <t>PRI5002-02</t>
-  </si>
-  <si>
-    <t>박소영</t>
-  </si>
-  <si>
-    <t>PRI5002-03</t>
-  </si>
-  <si>
-    <t>박제이</t>
-  </si>
-  <si>
-    <t>PRI5002-04</t>
-  </si>
-  <si>
-    <t>이광임</t>
-  </si>
-  <si>
-    <t>금11.0-13.5/18:50-21:30</t>
-  </si>
-  <si>
-    <t>PRI5016-01</t>
-  </si>
-  <si>
-    <t>Academic Reading and Discussion</t>
-  </si>
-  <si>
-    <t>데미안</t>
-  </si>
-  <si>
-    <t>PRI5051-01</t>
-  </si>
-  <si>
-    <t>시사영어</t>
-  </si>
-  <si>
-    <t>방찬혁</t>
-  </si>
-  <si>
-    <t>PRI5074-01</t>
-  </si>
-  <si>
-    <t>EnglishthroughFilms</t>
-  </si>
-  <si>
-    <t>벤윌리스</t>
-  </si>
-  <si>
-    <t>PRI5074-02</t>
-  </si>
-  <si>
-    <t>PRI5075-01</t>
-  </si>
-  <si>
-    <t>AcademicWriting</t>
-  </si>
-  <si>
-    <t>데이린프롤리</t>
-  </si>
-  <si>
-    <t>PRI5075-02</t>
-  </si>
-  <si>
-    <t>PRI5075-03</t>
-  </si>
-  <si>
-    <t>알렉스</t>
-  </si>
-  <si>
-    <t>PRI5075-04</t>
-  </si>
-  <si>
-    <t>월5.5-6.5/13:30-15:00,목5.5-6.5/13:30-15:00</t>
-  </si>
-  <si>
-    <t>PRI5075-05</t>
-  </si>
-  <si>
-    <t>PRI5076-01</t>
-  </si>
-  <si>
-    <t>BusinessWriting</t>
-  </si>
-  <si>
-    <t>에이미우</t>
-  </si>
-  <si>
-    <t>PRI5076-02</t>
-  </si>
-  <si>
-    <t>PRI5076-03</t>
-  </si>
-  <si>
-    <t>제프벨리</t>
-  </si>
-  <si>
-    <t>PRI5076-04</t>
-  </si>
-  <si>
-    <t>수4.5-5.5/12:30-14:00,금4.5-5.5/12:30-14:00</t>
-  </si>
-  <si>
-    <t>PRI5079-01</t>
-  </si>
-  <si>
-    <t>EnglishConversation3</t>
-  </si>
-  <si>
-    <t>베리웰시</t>
-  </si>
-  <si>
-    <t>PRI5081-01</t>
-  </si>
-  <si>
-    <t>중국어(초급)</t>
-  </si>
-  <si>
-    <t>박석홍</t>
-  </si>
-  <si>
-    <t>PRI5081-02</t>
-  </si>
-  <si>
-    <t>조영경</t>
-  </si>
-  <si>
-    <t>PRI5081-03</t>
-  </si>
-  <si>
-    <t>양은선</t>
-  </si>
-  <si>
-    <t>PRI5081-04</t>
-  </si>
-  <si>
-    <t>이종미</t>
-  </si>
-  <si>
-    <t>PRI5081-05</t>
-  </si>
-  <si>
-    <t>정겨울</t>
-  </si>
-  <si>
-    <t>PRI5081-06</t>
-  </si>
-  <si>
-    <t>최병선</t>
-  </si>
-  <si>
-    <t>PRI5081-07</t>
-  </si>
-  <si>
-    <t>양선혜</t>
-  </si>
-  <si>
-    <t>PRI5081-08</t>
-  </si>
-  <si>
-    <t>홍혜진</t>
-  </si>
-  <si>
-    <t>월11.0-13.5/18:50-21:30</t>
-  </si>
-  <si>
-    <t>PRI5082-01</t>
-  </si>
-  <si>
-    <t>중국어(중급)</t>
-  </si>
-  <si>
-    <t>김화진</t>
-  </si>
-  <si>
-    <t>PRI5083-01</t>
-  </si>
-  <si>
-    <t>일본어(초급)</t>
-  </si>
-  <si>
-    <t>김지혜</t>
-  </si>
-  <si>
-    <t>월4.0-5.0/12:00-13:30,수8.5-9.5/16:30-18:00</t>
-  </si>
-  <si>
-    <t>PRI5083-02</t>
-  </si>
-  <si>
-    <t>김연진</t>
-  </si>
-  <si>
-    <t>PRI5083-03</t>
-  </si>
-  <si>
-    <t>정성희</t>
-  </si>
-  <si>
-    <t>PRI5083-04</t>
-  </si>
-  <si>
-    <t>박정원</t>
-  </si>
-  <si>
-    <t>PRI5083-05</t>
-  </si>
-  <si>
-    <t>신지연</t>
-  </si>
-  <si>
-    <t>PRI5083-06</t>
-  </si>
-  <si>
-    <t>하소정</t>
-  </si>
-  <si>
-    <t>PRI5083-07</t>
-  </si>
-  <si>
-    <t>오채현</t>
-  </si>
-  <si>
-    <t>PRI5083-08</t>
-  </si>
-  <si>
-    <t>김경민</t>
-  </si>
-  <si>
-    <t>PRI5083-09</t>
-  </si>
-  <si>
-    <t>하채령</t>
-  </si>
-  <si>
-    <t>PRI5083-10</t>
-  </si>
-  <si>
-    <t>신은화</t>
-  </si>
-  <si>
-    <t>PRI5085-01</t>
-  </si>
-  <si>
-    <t>독일어(초급)</t>
-  </si>
-  <si>
-    <t>이상욱</t>
-  </si>
-  <si>
-    <t>PRI5087-01</t>
-  </si>
-  <si>
-    <t>불어(초급)</t>
-  </si>
-  <si>
-    <t>임민지</t>
-  </si>
-  <si>
-    <t>화3.0-4.0/11:00-12:30,금3.0-4.0/11:00-12:30</t>
-  </si>
-  <si>
-    <t>PRI5089-01</t>
-  </si>
-  <si>
-    <t>러시아어(초급)</t>
-  </si>
-  <si>
-    <t>김연수</t>
-  </si>
-  <si>
-    <t>PRI5089-02</t>
-  </si>
-  <si>
-    <t>PRI5091-01</t>
-  </si>
-  <si>
-    <t>스페인어(초급)</t>
-  </si>
-  <si>
-    <t>정민정</t>
-  </si>
-  <si>
-    <t>PRI5093-01</t>
-  </si>
-  <si>
-    <t>아랍어(초급)</t>
-  </si>
-  <si>
-    <t>이동은</t>
-  </si>
-  <si>
-    <t>PRI5093-02</t>
-  </si>
-  <si>
-    <t>화2.5-3.5/10:30-12:00,목2.5-3.5/10:30-12:00</t>
-  </si>
-  <si>
-    <t>PRI5095-01</t>
-  </si>
-  <si>
-    <t>교양한문</t>
-  </si>
-  <si>
-    <t>남궁윤</t>
-  </si>
-  <si>
-    <t>PRI5095-03</t>
-  </si>
-  <si>
-    <t>민희주</t>
-  </si>
-  <si>
-    <t>PRI5095-05</t>
-  </si>
-  <si>
-    <t>정난영</t>
-  </si>
-  <si>
-    <t>PRI5095-06</t>
-  </si>
-  <si>
-    <t>하성란</t>
-  </si>
-  <si>
-    <t>화11.0-13.5/18:50-21:30</t>
-  </si>
-  <si>
-    <t>PRI5095-08</t>
-  </si>
-  <si>
-    <t>양승목</t>
-  </si>
-  <si>
     <t>PRI5095-09</t>
   </si>
   <si>
-    <t>월10.0-12.5/18:00-20:30</t>
+    <t>심혜경</t>
   </si>
   <si>
     <t>PRI5096-01</t>
@@ -1072,19 +1270,25 @@
     <t>손윤락</t>
   </si>
   <si>
+    <t>PRI5097-01</t>
+  </si>
+  <si>
+    <t>OPIc</t>
+  </si>
+  <si>
     <t>PRI5099-01</t>
   </si>
   <si>
     <t>TOPIK</t>
   </si>
   <si>
-    <t>이수연</t>
+    <t>백수혜</t>
   </si>
   <si>
     <t>PRI5099-02</t>
   </si>
   <si>
-    <t>백수혜</t>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1491,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1564,7 +1768,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1572,19 +1776,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1592,19 +1796,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>422</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1612,19 +1816,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1632,19 +1836,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1652,19 +1856,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1672,19 +1876,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1692,19 +1896,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1712,16 +1916,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>31</v>
@@ -1732,19 +1936,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1752,19 +1956,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1772,19 +1976,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>422</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1792,19 +1996,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1812,19 +2016,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1832,19 +2036,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1852,19 +2056,19 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>48</v>
+        <v>422</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1872,19 +2076,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1892,19 +2096,19 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>52</v>
+        <v>422</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1912,19 +2116,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>422</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1932,19 +2136,19 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>58</v>
+        <v>422</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1952,19 +2156,19 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1972,19 +2176,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>65</v>
+        <v>422</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1992,19 +2196,19 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2012,19 +2216,19 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2032,19 +2236,19 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2052,19 +2256,19 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2072,19 +2276,19 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2092,19 +2296,19 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2112,19 +2316,19 @@
         <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2132,19 +2336,19 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>21</v>
+        <v>422</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2152,19 +2356,19 @@
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2172,19 +2376,19 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2192,19 +2396,19 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>97</v>
+        <v>422</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2212,19 +2416,19 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>94</v>
+        <v>422</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2232,19 +2436,19 @@
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2252,19 +2456,19 @@
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2272,19 +2476,19 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2292,19 +2496,19 @@
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2312,19 +2516,19 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2332,19 +2536,19 @@
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2352,19 +2556,19 @@
         <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2372,19 +2576,19 @@
         <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2392,19 +2596,19 @@
         <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>111</v>
+        <v>422</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2412,19 +2616,19 @@
         <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>129</v>
+        <v>422</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2432,19 +2636,19 @@
         <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2452,19 +2656,19 @@
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2472,19 +2676,19 @@
         <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2492,19 +2696,19 @@
         <v>6</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2512,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2532,19 +2736,19 @@
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2552,19 +2756,19 @@
         <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2572,19 +2776,19 @@
         <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2592,19 +2796,19 @@
         <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2612,19 +2816,19 @@
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2632,19 +2836,19 @@
         <v>6</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2652,19 +2856,19 @@
         <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2672,19 +2876,19 @@
         <v>6</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2692,19 +2896,19 @@
         <v>6</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2712,19 +2916,19 @@
         <v>6</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2741,10 +2945,10 @@
         <v>11</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2752,19 +2956,19 @@
         <v>6</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2772,10 +2976,10 @@
         <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>11</v>
@@ -2784,7 +2988,7 @@
         <v>168</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2795,16 +2999,16 @@
         <v>169</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2815,7 +3019,7 @@
         <v>170</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>11</v>
@@ -2824,7 +3028,7 @@
         <v>171</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2835,16 +3039,16 @@
         <v>172</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2855,16 +3059,16 @@
         <v>173</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="F68" s="3" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2875,16 +3079,16 @@
         <v>175</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2895,16 +3099,16 @@
         <v>177</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2912,19 +3116,19 @@
         <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2932,19 +3136,19 @@
         <v>6</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2952,19 +3156,19 @@
         <v>6</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>186</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2972,19 +3176,19 @@
         <v>6</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>189</v>
+        <v>422</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2992,19 +3196,19 @@
         <v>6</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3012,19 +3216,19 @@
         <v>6</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3032,19 +3236,19 @@
         <v>6</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3052,19 +3256,19 @@
         <v>6</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>199</v>
+        <v>422</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3072,19 +3276,19 @@
         <v>6</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3092,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>192</v>
@@ -3101,10 +3305,10 @@
         <v>11</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3112,7 +3316,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>192</v>
@@ -3121,10 +3325,10 @@
         <v>11</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3132,19 +3336,19 @@
         <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>212</v>
+        <v>422</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>200</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3152,19 +3356,19 @@
         <v>6</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>215</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3172,19 +3376,19 @@
         <v>6</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3192,19 +3396,19 @@
         <v>6</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3212,19 +3416,19 @@
         <v>6</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3232,19 +3436,19 @@
         <v>6</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3252,19 +3456,19 @@
         <v>6</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3272,19 +3476,19 @@
         <v>6</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>229</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3292,19 +3496,19 @@
         <v>6</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3312,19 +3516,19 @@
         <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3332,19 +3536,19 @@
         <v>6</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3352,19 +3556,19 @@
         <v>6</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3372,19 +3576,19 @@
         <v>6</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3392,19 +3596,19 @@
         <v>6</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3412,19 +3616,19 @@
         <v>6</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3432,19 +3636,19 @@
         <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>249</v>
+        <v>422</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>31</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3452,19 +3656,19 @@
         <v>6</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3472,19 +3676,19 @@
         <v>6</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>253</v>
+        <v>422</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>53</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3492,19 +3696,19 @@
         <v>6</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3512,19 +3716,19 @@
         <v>6</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3532,19 +3736,19 @@
         <v>6</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3552,19 +3756,19 @@
         <v>6</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3572,19 +3776,19 @@
         <v>6</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3592,19 +3796,19 @@
         <v>6</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3612,19 +3816,19 @@
         <v>6</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3632,19 +3836,19 @@
         <v>6</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3652,19 +3856,19 @@
         <v>6</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>273</v>
+        <v>9</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3672,19 +3876,19 @@
         <v>6</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>14</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3692,19 +3896,19 @@
         <v>6</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>277</v>
+        <v>422</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>31</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3712,19 +3916,19 @@
         <v>6</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3732,19 +3936,19 @@
         <v>6</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>36</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3752,19 +3956,19 @@
         <v>6</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3772,19 +3976,19 @@
         <v>6</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="F114" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3792,19 +3996,19 @@
         <v>6</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>288</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3812,19 +4016,19 @@
         <v>6</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3832,19 +4036,19 @@
         <v>6</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>294</v>
+        <v>422</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3852,19 +4056,19 @@
         <v>6</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3872,19 +4076,19 @@
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3892,19 +4096,19 @@
         <v>6</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3912,19 +4116,19 @@
         <v>6</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3932,19 +4136,19 @@
         <v>6</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3952,19 +4156,19 @@
         <v>6</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -3972,19 +4176,19 @@
         <v>6</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -3992,19 +4196,19 @@
         <v>6</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>53</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4012,19 +4216,19 @@
         <v>6</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>288</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4032,19 +4236,19 @@
         <v>6</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4052,19 +4256,19 @@
         <v>6</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4072,19 +4276,19 @@
         <v>6</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4092,19 +4296,19 @@
         <v>6</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>53</v>
+        <v>310</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4112,19 +4316,19 @@
         <v>6</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>36</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4132,19 +4336,19 @@
         <v>6</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4152,19 +4356,19 @@
         <v>6</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4172,19 +4376,19 @@
         <v>6</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4192,19 +4396,19 @@
         <v>6</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4212,19 +4416,19 @@
         <v>6</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4232,19 +4436,19 @@
         <v>6</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>342</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4252,19 +4456,19 @@
         <v>6</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>344</v>
+        <v>422</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4272,19 +4476,19 @@
         <v>6</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4292,19 +4496,19 @@
         <v>6</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>36</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4312,19 +4516,19 @@
         <v>6</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4332,19 +4536,719 @@
         <v>6</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" s="3" t="s">
+      <c r="F149" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>156</v>
+      <c r="C150" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
